--- a/data/pca/factorExposure/factorExposure_2018-07-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.02563125870236746</v>
+        <v>0.02138852735859401</v>
       </c>
       <c r="C2">
-        <v>0.0232333646341255</v>
+        <v>0.01884689451003059</v>
       </c>
       <c r="D2">
-        <v>0.02873579971487413</v>
+        <v>0.02129492929301895</v>
       </c>
       <c r="E2">
-        <v>-0.003092010619473074</v>
+        <v>0.01605547064715599</v>
       </c>
       <c r="F2">
-        <v>-0.1139360872985294</v>
+        <v>-0.004424698279734446</v>
       </c>
       <c r="G2">
-        <v>0.04575404436473177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05187690615127528</v>
+      </c>
+      <c r="H2">
+        <v>-0.05010650364201683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1071247946905482</v>
+        <v>0.08191672292594686</v>
       </c>
       <c r="C3">
-        <v>-0.03640575059886223</v>
+        <v>-0.01257950891634091</v>
       </c>
       <c r="D3">
-        <v>0.08352055810301359</v>
+        <v>0.02499762105435886</v>
       </c>
       <c r="E3">
-        <v>-0.0008349176647095387</v>
+        <v>0.01265070398410108</v>
       </c>
       <c r="F3">
-        <v>-0.39503635155033</v>
+        <v>0.04370106822567423</v>
       </c>
       <c r="G3">
-        <v>0.1692959605939741</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1783444950702228</v>
+      </c>
+      <c r="H3">
+        <v>-0.1568650970191229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04826711597327894</v>
+        <v>0.04398703333452382</v>
       </c>
       <c r="C4">
-        <v>0.02594217375604133</v>
+        <v>0.004917745657465901</v>
       </c>
       <c r="D4">
-        <v>-0.01436941954660109</v>
+        <v>0.04963468155727593</v>
       </c>
       <c r="E4">
-        <v>0.05284645806408357</v>
+        <v>-0.02283890757416108</v>
       </c>
       <c r="F4">
-        <v>-0.08548580950974316</v>
+        <v>-0.04928924036344229</v>
       </c>
       <c r="G4">
-        <v>0.05490817198455944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04385541195982794</v>
+      </c>
+      <c r="H4">
+        <v>-0.05772242180454129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.01553043598788286</v>
+        <v>0.02480016402406237</v>
       </c>
       <c r="C6">
-        <v>0.009857907343886944</v>
+        <v>0.004400898468968622</v>
       </c>
       <c r="D6">
-        <v>0.01696208737941207</v>
+        <v>0.05167374264382509</v>
       </c>
       <c r="E6">
-        <v>0.02238570092972787</v>
+        <v>-0.008257934350905742</v>
       </c>
       <c r="F6">
-        <v>-0.01255593120962626</v>
+        <v>-0.02884216872818544</v>
       </c>
       <c r="G6">
-        <v>0.003125687289466124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01436271437195595</v>
+      </c>
+      <c r="H6">
+        <v>-0.06119967347366789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02228664674463155</v>
+        <v>0.02122113298463431</v>
       </c>
       <c r="C7">
-        <v>0.002034979234898116</v>
+        <v>0.003321102554097407</v>
       </c>
       <c r="D7">
-        <v>0.01603664681124971</v>
+        <v>0.02593308266565843</v>
       </c>
       <c r="E7">
-        <v>0.0300250860676171</v>
+        <v>-0.0416576250421295</v>
       </c>
       <c r="F7">
-        <v>-0.05584417022034418</v>
+        <v>-0.001393829059512803</v>
       </c>
       <c r="G7">
-        <v>0.06737630634882973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02356602355833185</v>
+      </c>
+      <c r="H7">
+        <v>-0.03749472118522881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.02067576483295244</v>
+        <v>0.005821902720000571</v>
       </c>
       <c r="C8">
-        <v>0.01533734792264057</v>
+        <v>-0.001574322413166566</v>
       </c>
       <c r="D8">
-        <v>0.007555029092629344</v>
+        <v>0.01290173115798618</v>
       </c>
       <c r="E8">
-        <v>0.04607206947617819</v>
+        <v>-0.007231338142197205</v>
       </c>
       <c r="F8">
-        <v>-0.09910022528353468</v>
+        <v>-0.01628789469556144</v>
       </c>
       <c r="G8">
-        <v>0.05292951187881741</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04633632859533143</v>
+      </c>
+      <c r="H8">
+        <v>-0.04307447666267514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03817650685452709</v>
+        <v>0.03565471915723408</v>
       </c>
       <c r="C9">
-        <v>0.02342283752204936</v>
+        <v>0.0008837845878474883</v>
       </c>
       <c r="D9">
-        <v>-0.004051190152146291</v>
+        <v>0.03638443316084927</v>
       </c>
       <c r="E9">
-        <v>0.04744643529490135</v>
+        <v>-0.01185979276031162</v>
       </c>
       <c r="F9">
-        <v>-0.08628281926628496</v>
+        <v>-0.02471155629267867</v>
       </c>
       <c r="G9">
-        <v>0.05662895142104873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.05050931668646765</v>
+      </c>
+      <c r="H9">
+        <v>-0.05408025855879544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02565969838964857</v>
+        <v>0.1030759911898437</v>
       </c>
       <c r="C10">
-        <v>-0.0450706427379275</v>
+        <v>-0.02963478248062687</v>
       </c>
       <c r="D10">
-        <v>-0.0792752422407335</v>
+        <v>-0.152817351097881</v>
       </c>
       <c r="E10">
-        <v>-0.1051113201893301</v>
+        <v>0.009513755402480648</v>
       </c>
       <c r="F10">
-        <v>-0.04705904387716694</v>
+        <v>0.04258890744120299</v>
       </c>
       <c r="G10">
-        <v>-0.02416848555071134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02301230236546992</v>
+      </c>
+      <c r="H10">
+        <v>-0.005348915869643389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03677030780365763</v>
+        <v>0.02049817432278652</v>
       </c>
       <c r="C11">
-        <v>0.01555484594237365</v>
+        <v>-0.007932687824218087</v>
       </c>
       <c r="D11">
-        <v>0.01652715137303547</v>
+        <v>0.03962987381922065</v>
       </c>
       <c r="E11">
-        <v>0.0313400430472985</v>
+        <v>0.00082179380379825</v>
       </c>
       <c r="F11">
-        <v>-0.04418696057629701</v>
+        <v>-0.009048315863108688</v>
       </c>
       <c r="G11">
-        <v>0.02830579891835599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.026544114461243</v>
+      </c>
+      <c r="H11">
+        <v>-0.04404874182888643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04406684955718859</v>
+        <v>0.02958238413775007</v>
       </c>
       <c r="C12">
-        <v>0.01587032684261686</v>
+        <v>-0.00639322102379522</v>
       </c>
       <c r="D12">
-        <v>0.009041863626844672</v>
+        <v>0.04076655605810978</v>
       </c>
       <c r="E12">
-        <v>0.03867214794960983</v>
+        <v>-0.00908418191261477</v>
       </c>
       <c r="F12">
-        <v>-0.03207090747168391</v>
+        <v>-0.01580298295501629</v>
       </c>
       <c r="G12">
-        <v>0.01912948472004706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01146742132468856</v>
+      </c>
+      <c r="H12">
+        <v>-0.0241404874679214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01642780780862381</v>
+        <v>0.02523582953132365</v>
       </c>
       <c r="C13">
-        <v>0.02144698316993459</v>
+        <v>0.01461506924478027</v>
       </c>
       <c r="D13">
-        <v>0.01413347187869446</v>
+        <v>-0.001272944369890105</v>
       </c>
       <c r="E13">
-        <v>-0.001459890073201188</v>
+        <v>0.01269752991759484</v>
       </c>
       <c r="F13">
-        <v>-0.07850580434570709</v>
+        <v>-0.008729897369693734</v>
       </c>
       <c r="G13">
-        <v>0.04257754046538312</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05668923400438582</v>
+      </c>
+      <c r="H13">
+        <v>-0.05663478312778462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01487338227993502</v>
+        <v>0.01680127917601471</v>
       </c>
       <c r="C14">
-        <v>0.01084632328564024</v>
+        <v>0.0007027226005371353</v>
       </c>
       <c r="D14">
-        <v>-0.004663960462935229</v>
+        <v>0.005417014317759618</v>
       </c>
       <c r="E14">
-        <v>0.04018704123408622</v>
+        <v>-0.01350278590095952</v>
       </c>
       <c r="F14">
-        <v>-0.05096170282461671</v>
+        <v>-0.01264705656678906</v>
       </c>
       <c r="G14">
-        <v>0.06825326747656654</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04273936223529624</v>
+      </c>
+      <c r="H14">
+        <v>-0.002223719599818843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02791224401949987</v>
+        <v>0.02193086575959195</v>
       </c>
       <c r="C16">
-        <v>0.01935993898060266</v>
+        <v>-0.008543404902794545</v>
       </c>
       <c r="D16">
-        <v>0.01687690398621656</v>
+        <v>0.03541103741937683</v>
       </c>
       <c r="E16">
-        <v>0.02463337112929952</v>
+        <v>-0.002875024707204158</v>
       </c>
       <c r="F16">
-        <v>-0.05099419034524683</v>
+        <v>-0.01526201904964705</v>
       </c>
       <c r="G16">
-        <v>0.03118389867742393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02394577465105734</v>
+      </c>
+      <c r="H16">
+        <v>-0.03737416683927251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04849525543869271</v>
+        <v>0.03393912243824904</v>
       </c>
       <c r="C19">
-        <v>0.01770122569354033</v>
+        <v>0.0003421976508087579</v>
       </c>
       <c r="D19">
-        <v>0.01698848986202258</v>
+        <v>0.02341441636635785</v>
       </c>
       <c r="E19">
-        <v>0.04150908040547035</v>
+        <v>-0.00515763791090575</v>
       </c>
       <c r="F19">
-        <v>-0.09655171715310547</v>
+        <v>-0.01763406559544972</v>
       </c>
       <c r="G19">
-        <v>0.03356234868845173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.0568706623080746</v>
+      </c>
+      <c r="H19">
+        <v>-0.07348693736393956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001025785232835646</v>
+        <v>0.009101794486816197</v>
       </c>
       <c r="C20">
-        <v>0.01347103528027759</v>
+        <v>0.006757539445473333</v>
       </c>
       <c r="D20">
-        <v>-0.001559752818881472</v>
+        <v>0.008566387467981567</v>
       </c>
       <c r="E20">
-        <v>0.03394827903657852</v>
+        <v>-0.003932347947283961</v>
       </c>
       <c r="F20">
-        <v>-0.07181135152219156</v>
+        <v>-0.01057715595992031</v>
       </c>
       <c r="G20">
-        <v>0.07382332980519293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04884080124733195</v>
+      </c>
+      <c r="H20">
+        <v>-0.0133101258244887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004629704991534611</v>
+        <v>0.01455775445251605</v>
       </c>
       <c r="C21">
-        <v>-0.01191499957330528</v>
+        <v>0.008467106662473042</v>
       </c>
       <c r="D21">
-        <v>0.01467059980001022</v>
+        <v>0.009863221751515779</v>
       </c>
       <c r="E21">
-        <v>0.02997745549845584</v>
+        <v>-0.01571715287396989</v>
       </c>
       <c r="F21">
-        <v>-0.05378847403909825</v>
+        <v>-0.0009170744947525121</v>
       </c>
       <c r="G21">
-        <v>0.02279389309792762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05057565331687058</v>
+      </c>
+      <c r="H21">
+        <v>-0.0338958094666492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03192916084627775</v>
+        <v>0.01949613839140126</v>
       </c>
       <c r="C24">
-        <v>0.02037165271248489</v>
+        <v>-0.002809028693906234</v>
       </c>
       <c r="D24">
-        <v>0.008440798532112933</v>
+        <v>0.03502171908160343</v>
       </c>
       <c r="E24">
-        <v>0.009252271215993431</v>
+        <v>-0.0002063089718633501</v>
       </c>
       <c r="F24">
-        <v>-0.04329771870997245</v>
+        <v>-0.009513120975678947</v>
       </c>
       <c r="G24">
-        <v>0.02528437928987659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02056147340283612</v>
+      </c>
+      <c r="H24">
+        <v>-0.04068616646939058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03142645119534206</v>
+        <v>0.02925686362654023</v>
       </c>
       <c r="C25">
-        <v>0.01189149810063059</v>
+        <v>-0.0007695255346878312</v>
       </c>
       <c r="D25">
-        <v>0.01674019535902922</v>
+        <v>0.03468363712721743</v>
       </c>
       <c r="E25">
-        <v>0.03664681104416205</v>
+        <v>-0.004465002135259046</v>
       </c>
       <c r="F25">
-        <v>-0.04351343105928646</v>
+        <v>-0.0152321776842584</v>
       </c>
       <c r="G25">
-        <v>0.01011623314667848</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02442294354690577</v>
+      </c>
+      <c r="H25">
+        <v>-0.04395184599921211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02157067471341828</v>
+        <v>0.02037643741949889</v>
       </c>
       <c r="C26">
-        <v>0.005076142371605807</v>
+        <v>0.01722593363069466</v>
       </c>
       <c r="D26">
-        <v>0.03068883478186757</v>
+        <v>0.003061933102247031</v>
       </c>
       <c r="E26">
-        <v>0.01851764045263144</v>
+        <v>0.0009817614508598877</v>
       </c>
       <c r="F26">
-        <v>-0.06248798742704544</v>
+        <v>0.000355682415194361</v>
       </c>
       <c r="G26">
-        <v>0.03827968902402663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03235321934806129</v>
+      </c>
+      <c r="H26">
+        <v>-0.0205924542278866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06301724545847488</v>
+        <v>0.02452515661592181</v>
       </c>
       <c r="C27">
-        <v>0.02924534845266237</v>
+        <v>-0.00941769603795131</v>
       </c>
       <c r="D27">
-        <v>-0.02773297662633572</v>
+        <v>0.01558555595952196</v>
       </c>
       <c r="E27">
-        <v>0.03614433576687987</v>
+        <v>-0.007629785671949552</v>
       </c>
       <c r="F27">
-        <v>-0.05398898250552023</v>
+        <v>-0.01656378813008039</v>
       </c>
       <c r="G27">
-        <v>0.04427539810101255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01896758087921614</v>
+      </c>
+      <c r="H27">
+        <v>-0.004088037972153882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04037497892710148</v>
+        <v>0.153451194163966</v>
       </c>
       <c r="C28">
-        <v>-0.05093755794921408</v>
+        <v>-0.03068511101564241</v>
       </c>
       <c r="D28">
-        <v>-0.1114627642053679</v>
+        <v>-0.2221230863066034</v>
       </c>
       <c r="E28">
-        <v>-0.1476396422725392</v>
+        <v>0.007032616868666591</v>
       </c>
       <c r="F28">
-        <v>-0.04531455218361954</v>
+        <v>0.04785363316937449</v>
       </c>
       <c r="G28">
-        <v>-0.009148721606860996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009667694734915419</v>
+      </c>
+      <c r="H28">
+        <v>0.01303605605693938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0224969381005625</v>
+        <v>0.02191539190572103</v>
       </c>
       <c r="C29">
-        <v>0.0122483897644371</v>
+        <v>-0.00150222077069487</v>
       </c>
       <c r="D29">
-        <v>-0.007382750545369601</v>
+        <v>0.006879079089511792</v>
       </c>
       <c r="E29">
-        <v>0.05419700993580291</v>
+        <v>-0.01356989027756722</v>
       </c>
       <c r="F29">
-        <v>-0.04261677585641627</v>
+        <v>-0.01572662278498566</v>
       </c>
       <c r="G29">
-        <v>0.05864986715225774</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.0405662948988916</v>
+      </c>
+      <c r="H29">
+        <v>0.001220421253836636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09226344991263097</v>
+        <v>0.05000464508168028</v>
       </c>
       <c r="C30">
-        <v>0.06176341623057229</v>
+        <v>0.00541752362459271</v>
       </c>
       <c r="D30">
-        <v>0.01586762689724473</v>
+        <v>0.07077824987737016</v>
       </c>
       <c r="E30">
-        <v>0.07002605545887416</v>
+        <v>0.02935103854616846</v>
       </c>
       <c r="F30">
-        <v>-0.0851207360436271</v>
+        <v>-0.04936435366819553</v>
       </c>
       <c r="G30">
-        <v>0.06513511406271519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0559863535391146</v>
+      </c>
+      <c r="H30">
+        <v>-0.06283740510836963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06390300396649473</v>
+        <v>0.05511044205522588</v>
       </c>
       <c r="C31">
-        <v>0.02763129489165322</v>
+        <v>-0.01472311892623259</v>
       </c>
       <c r="D31">
-        <v>0.02561215436960368</v>
+        <v>0.02703430189558798</v>
       </c>
       <c r="E31">
-        <v>0.004995863688357083</v>
+        <v>0.004366821151377322</v>
       </c>
       <c r="F31">
-        <v>-0.04132574196352056</v>
+        <v>-0.01268242296105944</v>
       </c>
       <c r="G31">
-        <v>0.06610154851510133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01760097440579587</v>
+      </c>
+      <c r="H31">
+        <v>-0.01118871528713612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02115939368528317</v>
+        <v>0.01080521590595574</v>
       </c>
       <c r="C32">
-        <v>0.01945625494927644</v>
+        <v>-0.01338077509628662</v>
       </c>
       <c r="D32">
-        <v>0.009291965219001046</v>
+        <v>0.003645887000920923</v>
       </c>
       <c r="E32">
-        <v>0.08132728578169066</v>
+        <v>-0.03125382066341204</v>
       </c>
       <c r="F32">
-        <v>-0.06178289349787131</v>
+        <v>-0.03344059698100117</v>
       </c>
       <c r="G32">
-        <v>0.04835236324596539</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03448039476003271</v>
+      </c>
+      <c r="H32">
+        <v>-0.05916869794200111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05105995744728292</v>
+        <v>0.0382369294186875</v>
       </c>
       <c r="C33">
-        <v>0.01334278127981253</v>
+        <v>-0.0009013441974646752</v>
       </c>
       <c r="D33">
-        <v>0.04787119199879471</v>
+        <v>0.03453265460703861</v>
       </c>
       <c r="E33">
-        <v>0.04189405181192826</v>
+        <v>0.02341238869353245</v>
       </c>
       <c r="F33">
-        <v>-0.0857053977363697</v>
+        <v>-0.001802859715949354</v>
       </c>
       <c r="G33">
-        <v>0.06303715447581303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04750603917979966</v>
+      </c>
+      <c r="H33">
+        <v>-0.04130179773468443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0347885764678609</v>
+        <v>0.02648738449470062</v>
       </c>
       <c r="C34">
-        <v>0.02229422517678225</v>
+        <v>-0.01701496655048404</v>
       </c>
       <c r="D34">
-        <v>0.01164316381984745</v>
+        <v>0.03625243672924693</v>
       </c>
       <c r="E34">
-        <v>0.03300942765072637</v>
+        <v>-0.009464116256777908</v>
       </c>
       <c r="F34">
-        <v>-0.05855499124347349</v>
+        <v>-0.01703282810370144</v>
       </c>
       <c r="G34">
-        <v>0.01662439431547976</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02260147733758357</v>
+      </c>
+      <c r="H34">
+        <v>-0.03768111889770887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01625766462100603</v>
+        <v>0.02130582194610979</v>
       </c>
       <c r="C36">
-        <v>0.005808088232542864</v>
+        <v>0.003785005347136717</v>
       </c>
       <c r="D36">
-        <v>-0.001863280690896201</v>
+        <v>0.000541483435734732</v>
       </c>
       <c r="E36">
-        <v>0.029620518983046</v>
+        <v>-0.00668502801969837</v>
       </c>
       <c r="F36">
-        <v>-0.03168485524276167</v>
+        <v>-0.003952831129477829</v>
       </c>
       <c r="G36">
-        <v>0.03794905935877604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01911510937694343</v>
+      </c>
+      <c r="H36">
+        <v>-0.008177247701911985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0005694610304971955</v>
+        <v>0.02259431051555296</v>
       </c>
       <c r="C38">
-        <v>-0.01242770220672005</v>
+        <v>-0.0160455617091417</v>
       </c>
       <c r="D38">
-        <v>0.01390313764212936</v>
+        <v>0.008108083357019433</v>
       </c>
       <c r="E38">
-        <v>-0.01533369021685096</v>
+        <v>0.0008618169979342559</v>
       </c>
       <c r="F38">
-        <v>-0.04643540569136571</v>
+        <v>-0.007155729396423333</v>
       </c>
       <c r="G38">
-        <v>0.002991307587667298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02077214600693366</v>
+      </c>
+      <c r="H38">
+        <v>-0.04060909467115596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04257914704507445</v>
+        <v>0.01730491906836506</v>
       </c>
       <c r="C39">
-        <v>0.03869314379492316</v>
+        <v>-0.000429650223742242</v>
       </c>
       <c r="D39">
-        <v>0.02528024516641815</v>
+        <v>0.07635521956214643</v>
       </c>
       <c r="E39">
-        <v>0.03640855941850377</v>
+        <v>0.0018684489676942</v>
       </c>
       <c r="F39">
-        <v>-0.06471099597788102</v>
+        <v>-0.01995510297077721</v>
       </c>
       <c r="G39">
-        <v>0.03099671905012518</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04296776991648114</v>
+      </c>
+      <c r="H39">
+        <v>-0.06954261380653882</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03854729773092106</v>
+        <v>0.03115513078907131</v>
       </c>
       <c r="C40">
-        <v>0.06247945642288107</v>
+        <v>-0.000696585970564056</v>
       </c>
       <c r="D40">
-        <v>0.03520016709162135</v>
+        <v>0.02126254857201398</v>
       </c>
       <c r="E40">
-        <v>-0.01039985684982875</v>
+        <v>0.02434131254481504</v>
       </c>
       <c r="F40">
-        <v>-0.0778374779066644</v>
+        <v>-0.02747475942511346</v>
       </c>
       <c r="G40">
-        <v>0.05419044524235416</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02725909889644081</v>
+      </c>
+      <c r="H40">
+        <v>-0.06612346482415579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0002478914296521153</v>
+        <v>0.01179972036571717</v>
       </c>
       <c r="C41">
-        <v>-0.002282520408115364</v>
+        <v>0.0002449183464325903</v>
       </c>
       <c r="D41">
-        <v>0.007026148888387255</v>
+        <v>-0.01287751527303369</v>
       </c>
       <c r="E41">
-        <v>0.009359509828542443</v>
+        <v>0.001871462765293314</v>
       </c>
       <c r="F41">
-        <v>-0.001042958670526128</v>
+        <v>0.00208885008990963</v>
       </c>
       <c r="G41">
-        <v>0.04916574938897869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.002268689230110903</v>
+      </c>
+      <c r="H41">
+        <v>0.005919981141161928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3645433472028091</v>
+        <v>0.1956058516803381</v>
       </c>
       <c r="C42">
-        <v>-0.6559999622959143</v>
+        <v>0.07707289232057037</v>
       </c>
       <c r="D42">
-        <v>0.5493532898462374</v>
+        <v>0.3487978036289257</v>
       </c>
       <c r="E42">
-        <v>-0.1565221909286475</v>
+        <v>0.2287793142746476</v>
       </c>
       <c r="F42">
-        <v>0.2592976057494923</v>
+        <v>0.8493073550364405</v>
       </c>
       <c r="G42">
-        <v>0.07772976566063593</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1984657739144297</v>
+      </c>
+      <c r="H42">
+        <v>0.04698980521527667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007953277762618083</v>
+        <v>0.01166314541823215</v>
       </c>
       <c r="C43">
-        <v>-0.007445355973891139</v>
+        <v>0.001610069736482379</v>
       </c>
       <c r="D43">
-        <v>0.01684869583789986</v>
+        <v>-0.0134099263670572</v>
       </c>
       <c r="E43">
-        <v>0.01091094312129798</v>
+        <v>0.006053738953233443</v>
       </c>
       <c r="F43">
-        <v>-0.01588731788015392</v>
+        <v>0.008980044434030702</v>
       </c>
       <c r="G43">
-        <v>0.04700551593544782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004942547804074609</v>
+      </c>
+      <c r="H43">
+        <v>-0.001437377130991256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01705292879543422</v>
+        <v>0.01298434641496621</v>
       </c>
       <c r="C44">
-        <v>-0.004507831823595996</v>
+        <v>-0.0008866885298875197</v>
       </c>
       <c r="D44">
-        <v>0.0219944477293245</v>
+        <v>0.024268846254811</v>
       </c>
       <c r="E44">
-        <v>0.02423344006909626</v>
+        <v>-0.005036394964682023</v>
       </c>
       <c r="F44">
-        <v>-0.1104477315804925</v>
+        <v>0.007159038640161656</v>
       </c>
       <c r="G44">
-        <v>0.07730885082935136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03896427013614904</v>
+      </c>
+      <c r="H44">
+        <v>-0.05799791940241948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02052783740459909</v>
+        <v>0.01851280413981209</v>
       </c>
       <c r="C46">
-        <v>0.01366286701869202</v>
+        <v>0.003661704469457079</v>
       </c>
       <c r="D46">
-        <v>0.0230875214458907</v>
+        <v>0.01479750468087459</v>
       </c>
       <c r="E46">
-        <v>0.04932301119755018</v>
+        <v>-0.001062412534849436</v>
       </c>
       <c r="F46">
-        <v>-0.05554912768379803</v>
+        <v>-0.01484811554787653</v>
       </c>
       <c r="G46">
-        <v>0.06725656185786343</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04766264906886838</v>
+      </c>
+      <c r="H46">
+        <v>-0.01145194319305859</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09735672262014093</v>
+        <v>0.0747572223673444</v>
       </c>
       <c r="C47">
-        <v>0.03361622142914354</v>
+        <v>-0.02973867963506754</v>
       </c>
       <c r="D47">
-        <v>0.007179750700671562</v>
+        <v>0.04637002266710616</v>
       </c>
       <c r="E47">
-        <v>0.02288799164432042</v>
+        <v>-0.0005561767009482373</v>
       </c>
       <c r="F47">
-        <v>-0.01808054153662585</v>
+        <v>-0.02338248424903838</v>
       </c>
       <c r="G47">
-        <v>0.08807767601829658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007761075060452074</v>
+      </c>
+      <c r="H47">
+        <v>0.02113947562238633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01827816347317287</v>
+        <v>0.02245534917802924</v>
       </c>
       <c r="C48">
-        <v>0.007677282538057594</v>
+        <v>-0.006709427063276013</v>
       </c>
       <c r="D48">
-        <v>0.01450405208084155</v>
+        <v>0.008111899122118849</v>
       </c>
       <c r="E48">
-        <v>0.02818447661962805</v>
+        <v>-0.001696416531704409</v>
       </c>
       <c r="F48">
-        <v>-0.04938643166475404</v>
+        <v>-0.008433206047615771</v>
       </c>
       <c r="G48">
-        <v>0.02529964640714247</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02556872149774408</v>
+      </c>
+      <c r="H48">
+        <v>-0.01812170237778027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09143113043953893</v>
+        <v>0.07335014188107407</v>
       </c>
       <c r="C50">
-        <v>0.02981818704223586</v>
+        <v>-0.02696908094926543</v>
       </c>
       <c r="D50">
-        <v>0.01952000390272082</v>
+        <v>0.04427570365845893</v>
       </c>
       <c r="E50">
-        <v>0.03348254521341648</v>
+        <v>-0.01896673988767037</v>
       </c>
       <c r="F50">
-        <v>-0.05180788683598739</v>
+        <v>-0.01657567409748937</v>
       </c>
       <c r="G50">
-        <v>0.04184908203075316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01436923185046947</v>
+      </c>
+      <c r="H50">
+        <v>0.001180437789284478</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01701064172549654</v>
+        <v>0.01836625352035909</v>
       </c>
       <c r="C51">
-        <v>-0.009492055153270257</v>
+        <v>0.001480804025005482</v>
       </c>
       <c r="D51">
-        <v>0.01533974843407541</v>
+        <v>-0.003935096497187505</v>
       </c>
       <c r="E51">
-        <v>-0.002412300947996034</v>
+        <v>0.0002180983308589203</v>
       </c>
       <c r="F51">
-        <v>-0.1138257867646928</v>
+        <v>0.01169829738065341</v>
       </c>
       <c r="G51">
-        <v>0.05440378056917861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04969950336501254</v>
+      </c>
+      <c r="H51">
+        <v>-0.05028416998105575</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1055911039892467</v>
+        <v>0.09236789202465302</v>
       </c>
       <c r="C53">
-        <v>0.05085063332108797</v>
+        <v>-0.03668314393883336</v>
       </c>
       <c r="D53">
-        <v>0.01217504869482483</v>
+        <v>0.0814266934258057</v>
       </c>
       <c r="E53">
-        <v>0.04060300338817168</v>
+        <v>-0.007755676933919502</v>
       </c>
       <c r="F53">
-        <v>0.0487189545084648</v>
+        <v>-0.04967567737054054</v>
       </c>
       <c r="G53">
-        <v>0.02493402913664791</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0423598487574699</v>
+      </c>
+      <c r="H53">
+        <v>0.04279898778960647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02176567293583418</v>
+        <v>0.02621611664244637</v>
       </c>
       <c r="C54">
-        <v>0.01394020090256972</v>
+        <v>-0.01146717426342678</v>
       </c>
       <c r="D54">
-        <v>-0.00943167519828921</v>
+        <v>-0.01119336957023939</v>
       </c>
       <c r="E54">
-        <v>0.03689894882970643</v>
+        <v>-0.007255552091956783</v>
       </c>
       <c r="F54">
-        <v>-0.04893748264407724</v>
+        <v>-0.006120420880817546</v>
       </c>
       <c r="G54">
-        <v>0.06874557099232048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03970322756409271</v>
+      </c>
+      <c r="H54">
+        <v>0.00269300510632875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1046622303249275</v>
+        <v>0.07630884901196749</v>
       </c>
       <c r="C55">
-        <v>0.03004031885692368</v>
+        <v>-0.0316164804290496</v>
       </c>
       <c r="D55">
-        <v>-0.009308770957010834</v>
+        <v>0.07831072925401364</v>
       </c>
       <c r="E55">
-        <v>0.06337071253673242</v>
+        <v>-0.01491367134433181</v>
       </c>
       <c r="F55">
-        <v>0.03650721635791484</v>
+        <v>-0.03997212125985599</v>
       </c>
       <c r="G55">
-        <v>0.07487982989785009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01976526483954543</v>
+      </c>
+      <c r="H55">
+        <v>0.05179149418299265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1452139437079137</v>
+        <v>0.12555538921237</v>
       </c>
       <c r="C56">
-        <v>0.0912138807963922</v>
+        <v>-0.05593992975153422</v>
       </c>
       <c r="D56">
-        <v>-0.02474729214537804</v>
+        <v>0.1041256003448607</v>
       </c>
       <c r="E56">
-        <v>0.05488531763887863</v>
+        <v>-0.01189756266253821</v>
       </c>
       <c r="F56">
-        <v>0.1026903958643645</v>
+        <v>-0.0812301147022344</v>
       </c>
       <c r="G56">
-        <v>-0.03270715727455503</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.0762692872301014</v>
+      </c>
+      <c r="H56">
+        <v>0.05006906855806924</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04964757160683666</v>
+        <v>0.03937560038632434</v>
       </c>
       <c r="C57">
-        <v>0.001385009595855108</v>
+        <v>0.009936373485450265</v>
       </c>
       <c r="D57">
-        <v>0.01267764993203249</v>
+        <v>0.03070509982725294</v>
       </c>
       <c r="E57">
-        <v>-0.01350083556580827</v>
+        <v>0.004012695609484165</v>
       </c>
       <c r="F57">
-        <v>-0.08350740994108637</v>
+        <v>-0.01451699615993539</v>
       </c>
       <c r="G57">
-        <v>0.06091415264158373</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05624879146468543</v>
+      </c>
+      <c r="H57">
+        <v>-0.04158254537317219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2097367439711786</v>
+        <v>0.1457951502953544</v>
       </c>
       <c r="C58">
-        <v>0.06661387326131207</v>
+        <v>-0.04205566361360945</v>
       </c>
       <c r="D58">
-        <v>0.1293957615137619</v>
+        <v>0.1578256746829226</v>
       </c>
       <c r="E58">
-        <v>0.1278951487273498</v>
+        <v>0.1684631716987229</v>
       </c>
       <c r="F58">
-        <v>-0.3350108934206684</v>
+        <v>0.03664136081550907</v>
       </c>
       <c r="G58">
-        <v>0.1279193996234748</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8263013274991171</v>
+      </c>
+      <c r="H58">
+        <v>0.3789634746706195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04434537654112537</v>
+        <v>0.158835000083876</v>
       </c>
       <c r="C59">
-        <v>-0.005521646243485982</v>
+        <v>-0.03834415103378647</v>
       </c>
       <c r="D59">
-        <v>-0.09713470603129232</v>
+        <v>-0.2195530868687581</v>
       </c>
       <c r="E59">
-        <v>-0.1385422326781811</v>
+        <v>0.02518317274227294</v>
       </c>
       <c r="F59">
-        <v>-0.06589500955635755</v>
+        <v>0.02470634296933264</v>
       </c>
       <c r="G59">
-        <v>-0.02681301709450397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.009237761214908017</v>
+      </c>
+      <c r="H59">
+        <v>-0.01796025066921126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1632624642444551</v>
+        <v>0.1747375525433902</v>
       </c>
       <c r="C60">
-        <v>0.03876786196145403</v>
+        <v>-0.03633844158797946</v>
       </c>
       <c r="D60">
-        <v>0.06689349972180617</v>
+        <v>0.02059189440498069</v>
       </c>
       <c r="E60">
-        <v>-0.04559704860141324</v>
+        <v>0.0469934626306177</v>
       </c>
       <c r="F60">
-        <v>-0.1735671660691859</v>
+        <v>-0.03552472708039244</v>
       </c>
       <c r="G60">
-        <v>-0.3036230067957909</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04612569889901939</v>
+      </c>
+      <c r="H60">
+        <v>-0.3930301966024256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02368997202440262</v>
+        <v>0.02047692324942675</v>
       </c>
       <c r="C61">
-        <v>0.007293056600646664</v>
+        <v>-0.005954901143824421</v>
       </c>
       <c r="D61">
-        <v>0.01344096826947063</v>
+        <v>0.04240669777575225</v>
       </c>
       <c r="E61">
-        <v>0.02069154082126406</v>
+        <v>-0.005159879325804589</v>
       </c>
       <c r="F61">
-        <v>-0.03702733244254314</v>
+        <v>-0.01639526548734435</v>
       </c>
       <c r="G61">
-        <v>0.01915549653858738</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0260479508281544</v>
+      </c>
+      <c r="H61">
+        <v>-0.05011268726551678</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01682762255211788</v>
+        <v>0.01203924485281492</v>
       </c>
       <c r="C63">
-        <v>0.01359390184107113</v>
+        <v>0.002481692159713027</v>
       </c>
       <c r="D63">
-        <v>0.01487227168720311</v>
+        <v>0.01592419631083423</v>
       </c>
       <c r="E63">
-        <v>0.04352880736889043</v>
+        <v>-0.005472702259522038</v>
       </c>
       <c r="F63">
-        <v>-0.01425286152414264</v>
+        <v>-0.01527835175177693</v>
       </c>
       <c r="G63">
-        <v>0.04433868941456522</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01649963430724353</v>
+      </c>
+      <c r="H63">
+        <v>-0.003829078039681149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03434483580228973</v>
+        <v>0.03890546007475282</v>
       </c>
       <c r="C64">
-        <v>0.004148188700829312</v>
+        <v>-0.009243473075838976</v>
       </c>
       <c r="D64">
-        <v>-0.01173081960946604</v>
+        <v>0.04013945121536748</v>
       </c>
       <c r="E64">
-        <v>0.05832178448743194</v>
+        <v>-0.01129123135808115</v>
       </c>
       <c r="F64">
-        <v>-0.01621457647035747</v>
+        <v>-0.004172481805736269</v>
       </c>
       <c r="G64">
-        <v>0.06838636357195868</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.007457492282336815</v>
+      </c>
+      <c r="H64">
+        <v>-0.03692565494439401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01675338626306013</v>
+        <v>0.02766407469763962</v>
       </c>
       <c r="C65">
-        <v>0.01136802503926217</v>
+        <v>0.005111408615522466</v>
       </c>
       <c r="D65">
-        <v>0.01820729426436108</v>
+        <v>0.06024891674124419</v>
       </c>
       <c r="E65">
-        <v>0.02248259791583031</v>
+        <v>-0.01035296607820814</v>
       </c>
       <c r="F65">
-        <v>-0.007538928220893411</v>
+        <v>-0.03226208994418329</v>
       </c>
       <c r="G65">
-        <v>-0.001612773844326295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.003273479771563086</v>
+      </c>
+      <c r="H65">
+        <v>-0.06111311428450923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04591022421850204</v>
+        <v>0.02333837882403797</v>
       </c>
       <c r="C66">
-        <v>0.0387652856106756</v>
+        <v>-0.004973595315493364</v>
       </c>
       <c r="D66">
-        <v>0.02719691827731956</v>
+        <v>0.0884111320440909</v>
       </c>
       <c r="E66">
-        <v>0.03372105069888723</v>
+        <v>0.003139536513731626</v>
       </c>
       <c r="F66">
-        <v>-0.06051427116704489</v>
+        <v>-0.03609254482319829</v>
       </c>
       <c r="G66">
-        <v>0.02233397296655517</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03631039964029431</v>
+      </c>
+      <c r="H66">
+        <v>-0.07239887305503692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01291907961831491</v>
+        <v>0.04293136735313127</v>
       </c>
       <c r="C67">
-        <v>-0.008332230177035263</v>
+        <v>-0.01934199086529979</v>
       </c>
       <c r="D67">
-        <v>0.009988116796435484</v>
+        <v>0.00248630003142702</v>
       </c>
       <c r="E67">
-        <v>-0.03760351277408801</v>
+        <v>0.004351009652892733</v>
       </c>
       <c r="F67">
-        <v>-0.03158343761868044</v>
+        <v>-0.01267641839078666</v>
       </c>
       <c r="G67">
-        <v>-0.00601365492160518</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.003611978007459474</v>
+      </c>
+      <c r="H67">
+        <v>-0.04004545870583966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05886559491358927</v>
+        <v>0.1609105499737147</v>
       </c>
       <c r="C68">
-        <v>-0.02238502491008976</v>
+        <v>-0.0185756470795745</v>
       </c>
       <c r="D68">
-        <v>-0.1317819409080201</v>
+        <v>-0.2209287802413963</v>
       </c>
       <c r="E68">
-        <v>-0.1414758755775865</v>
+        <v>0.01960426510457682</v>
       </c>
       <c r="F68">
-        <v>-0.0497061715065184</v>
+        <v>0.04657964072135005</v>
       </c>
       <c r="G68">
-        <v>-0.0615849085588034</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01899512935942711</v>
+      </c>
+      <c r="H68">
+        <v>0.037711952867139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0718596960713163</v>
+        <v>0.05819645583367116</v>
       </c>
       <c r="C69">
-        <v>0.03711451067886397</v>
+        <v>-0.02829649734496013</v>
       </c>
       <c r="D69">
-        <v>0.004388906251893093</v>
+        <v>0.04071210491027553</v>
       </c>
       <c r="E69">
-        <v>0.001986342162631191</v>
+        <v>0.001373566407028923</v>
       </c>
       <c r="F69">
-        <v>-0.01622838221774344</v>
+        <v>-0.0307575580200326</v>
       </c>
       <c r="G69">
-        <v>0.08685364780321507</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01459682757542636</v>
+      </c>
+      <c r="H69">
+        <v>-0.003555002483656727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06753882421327147</v>
+        <v>0.149525929956064</v>
       </c>
       <c r="C71">
-        <v>-0.04042899149632222</v>
+        <v>-0.02533941143781793</v>
       </c>
       <c r="D71">
-        <v>-0.1130572373657209</v>
+        <v>-0.1966259821456317</v>
       </c>
       <c r="E71">
-        <v>-0.197196540732606</v>
+        <v>0.02553693918408493</v>
       </c>
       <c r="F71">
-        <v>-0.06404376972029255</v>
+        <v>0.05638774264490225</v>
       </c>
       <c r="G71">
-        <v>-0.01521794696204286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01895865772817303</v>
+      </c>
+      <c r="H71">
+        <v>0.03023094236336689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1162689316861792</v>
+        <v>0.08087938405196003</v>
       </c>
       <c r="C72">
-        <v>0.08775832776109284</v>
+        <v>-0.03895218674868433</v>
       </c>
       <c r="D72">
-        <v>-0.003719506801364879</v>
+        <v>0.07810447115040185</v>
       </c>
       <c r="E72">
-        <v>0.02139351719163839</v>
+        <v>0.008513869866130312</v>
       </c>
       <c r="F72">
-        <v>-0.1182165283081668</v>
+        <v>-0.07870725422600151</v>
       </c>
       <c r="G72">
-        <v>-0.06873027096935448</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05784456762736536</v>
+      </c>
+      <c r="H72">
+        <v>-0.1659848450910655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2465290756419314</v>
+        <v>0.2345455823191769</v>
       </c>
       <c r="C73">
-        <v>0.03423840442669754</v>
+        <v>-0.04542071536853862</v>
       </c>
       <c r="D73">
-        <v>0.07071760740583154</v>
+        <v>0.06797060380068536</v>
       </c>
       <c r="E73">
-        <v>-0.1415376815408226</v>
+        <v>0.07878537400327744</v>
       </c>
       <c r="F73">
-        <v>-0.3042028754859357</v>
+        <v>-0.03228910033426792</v>
       </c>
       <c r="G73">
-        <v>-0.44611546132558</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.06595154334454846</v>
+      </c>
+      <c r="H73">
+        <v>-0.5092736712382652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1417501636568946</v>
+        <v>0.1164500103375156</v>
       </c>
       <c r="C74">
-        <v>0.04385392298680173</v>
+        <v>-0.05159097320007917</v>
       </c>
       <c r="D74">
-        <v>-0.02024470722814765</v>
+        <v>0.1048932476699658</v>
       </c>
       <c r="E74">
-        <v>0.03546895370054082</v>
+        <v>-0.00953665990441682</v>
       </c>
       <c r="F74">
-        <v>0.0710170965632243</v>
+        <v>-0.06071135283615273</v>
       </c>
       <c r="G74">
-        <v>-0.02814831567563989</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05805184550755314</v>
+      </c>
+      <c r="H74">
+        <v>0.03056929476868151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2320155061596886</v>
+        <v>0.2258179891632278</v>
       </c>
       <c r="C75">
-        <v>0.1530819017149751</v>
+        <v>-0.1017009772207783</v>
       </c>
       <c r="D75">
-        <v>-0.03208965095305637</v>
+        <v>0.1671260561855357</v>
       </c>
       <c r="E75">
-        <v>0.06220940802313099</v>
+        <v>0.003281664492793321</v>
       </c>
       <c r="F75">
-        <v>0.1312648086379753</v>
+        <v>-0.1462193615173652</v>
       </c>
       <c r="G75">
-        <v>0.003837189175677519</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1279428201846021</v>
+      </c>
+      <c r="H75">
+        <v>0.1161288869405982</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2842585538025935</v>
+        <v>0.2007146565252788</v>
       </c>
       <c r="C76">
-        <v>0.1439278703309111</v>
+        <v>-0.09528439827203661</v>
       </c>
       <c r="D76">
-        <v>-0.1067167672455872</v>
+        <v>0.1599541588990745</v>
       </c>
       <c r="E76">
-        <v>0.08114164747122717</v>
+        <v>-0.04778336592217613</v>
       </c>
       <c r="F76">
-        <v>0.1654125461628189</v>
+        <v>-0.142903001683084</v>
       </c>
       <c r="G76">
-        <v>0.008605703714015808</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1250952134016086</v>
+      </c>
+      <c r="H76">
+        <v>0.1236639334999332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1399077924484042</v>
+        <v>0.06801621920113678</v>
       </c>
       <c r="C77">
-        <v>-0.02752596815042892</v>
+        <v>-0.007502706977027024</v>
       </c>
       <c r="D77">
-        <v>0.08403876161171774</v>
+        <v>0.06348405695344479</v>
       </c>
       <c r="E77">
-        <v>0.06549192013378817</v>
+        <v>0.01624999207717549</v>
       </c>
       <c r="F77">
-        <v>-0.1759734754930785</v>
+        <v>0.03569699349041926</v>
       </c>
       <c r="G77">
-        <v>0.1809029969815895</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1019573555861114</v>
+      </c>
+      <c r="H77">
+        <v>-0.002084191556382429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0649003369868504</v>
+        <v>0.03873221642914119</v>
       </c>
       <c r="C78">
-        <v>0.0237036060027472</v>
+        <v>-0.00986251809890178</v>
       </c>
       <c r="D78">
-        <v>0.03105150346459849</v>
+        <v>0.04920081762855658</v>
       </c>
       <c r="E78">
-        <v>0.09135399787254266</v>
+        <v>-0.008057411630510177</v>
       </c>
       <c r="F78">
-        <v>-0.06314325418107421</v>
+        <v>-0.01992908665202431</v>
       </c>
       <c r="G78">
-        <v>0.03436292639636641</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05929524287833932</v>
+      </c>
+      <c r="H78">
+        <v>-0.06871893467727323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1307488865476339</v>
+        <v>0.1375123309385495</v>
       </c>
       <c r="C80">
-        <v>-0.5844290224829958</v>
+        <v>-0.03642986622926934</v>
       </c>
       <c r="D80">
-        <v>-0.5667484484200482</v>
+        <v>0.04459182295366475</v>
       </c>
       <c r="E80">
-        <v>0.5235175667765629</v>
+        <v>-0.9388048460514261</v>
       </c>
       <c r="F80">
-        <v>-0.07273990514149789</v>
+        <v>0.242982624394089</v>
       </c>
       <c r="G80">
-        <v>-0.1107019263729694</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.123309542174597</v>
+      </c>
+      <c r="H80">
+        <v>-0.008111217940202373</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1759547162741792</v>
+        <v>0.1483296567052291</v>
       </c>
       <c r="C81">
-        <v>0.1059641064666806</v>
+        <v>-0.06580196448856265</v>
       </c>
       <c r="D81">
-        <v>-0.05384008983100794</v>
+        <v>0.1025879367876704</v>
       </c>
       <c r="E81">
-        <v>0.04288466061845478</v>
+        <v>-0.01730647613500192</v>
       </c>
       <c r="F81">
-        <v>0.1314109381689796</v>
+        <v>-0.08891788279346412</v>
       </c>
       <c r="G81">
-        <v>-0.02492482260111667</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08318201159918838</v>
+      </c>
+      <c r="H81">
+        <v>0.07959740076316189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04984054967493584</v>
+        <v>0.03261473573000093</v>
       </c>
       <c r="C83">
-        <v>-0.001466869335974392</v>
+        <v>-0.005661488420813939</v>
       </c>
       <c r="D83">
-        <v>0.03761094159997301</v>
+        <v>0.0211143359911415</v>
       </c>
       <c r="E83">
-        <v>0.01303626327826453</v>
+        <v>0.005366176314390793</v>
       </c>
       <c r="F83">
-        <v>-0.05589849342611699</v>
+        <v>-0.001562640947899402</v>
       </c>
       <c r="G83">
-        <v>0.04348415007840361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04212178457891423</v>
+      </c>
+      <c r="H83">
+        <v>-0.04163585372720895</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2534278597800758</v>
+        <v>0.2148549645872966</v>
       </c>
       <c r="C85">
-        <v>0.1352635530966455</v>
+        <v>-0.08511375596379653</v>
       </c>
       <c r="D85">
-        <v>-0.05342070472537899</v>
+        <v>0.1679042684579639</v>
       </c>
       <c r="E85">
-        <v>0.06861126485374061</v>
+        <v>-0.00371844771985515</v>
       </c>
       <c r="F85">
-        <v>0.1318075280889829</v>
+        <v>-0.1324438846481054</v>
       </c>
       <c r="G85">
-        <v>0.04885573060546344</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1388165610172477</v>
+      </c>
+      <c r="H85">
+        <v>0.08705494746231984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.004098323157331956</v>
+        <v>0.02076905657040351</v>
       </c>
       <c r="C86">
-        <v>-0.003041259691826005</v>
+        <v>0.0008464085155334195</v>
       </c>
       <c r="D86">
-        <v>0.02260891419485864</v>
+        <v>0.005574067253532698</v>
       </c>
       <c r="E86">
-        <v>0.05360867252404754</v>
+        <v>0.009263133255595394</v>
       </c>
       <c r="F86">
-        <v>-0.06039670606462384</v>
+        <v>0.01927102166099485</v>
       </c>
       <c r="G86">
-        <v>0.01684084139522517</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06323191946195096</v>
+      </c>
+      <c r="H86">
+        <v>-0.07560310786127658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03746090007947017</v>
+        <v>0.02706455788943806</v>
       </c>
       <c r="C87">
-        <v>-0.007584606132002855</v>
+        <v>-0.002004874380922549</v>
       </c>
       <c r="D87">
-        <v>0.002876756392233408</v>
+        <v>0.03353799980594315</v>
       </c>
       <c r="E87">
-        <v>0.04017404291572366</v>
+        <v>-0.008855049245261849</v>
       </c>
       <c r="F87">
-        <v>-0.1062405270761036</v>
+        <v>-0.00569958154109458</v>
       </c>
       <c r="G87">
-        <v>0.03756636906398684</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07688513665127648</v>
+      </c>
+      <c r="H87">
+        <v>-0.07501341161046016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01026583949801072</v>
+        <v>0.03460233417380121</v>
       </c>
       <c r="C88">
-        <v>0.002022388295054263</v>
+        <v>0.01207794669725334</v>
       </c>
       <c r="D88">
-        <v>-0.01759500166707573</v>
+        <v>0.004412342761071956</v>
       </c>
       <c r="E88">
-        <v>-0.003734543945768265</v>
+        <v>-0.008648157369363725</v>
       </c>
       <c r="F88">
-        <v>-0.006827036903474218</v>
+        <v>-0.006578946202348231</v>
       </c>
       <c r="G88">
-        <v>0.05171640037923292</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.002409235729968042</v>
+      </c>
+      <c r="H88">
+        <v>-0.01431704387681764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08443218750387356</v>
+        <v>0.2540489667973828</v>
       </c>
       <c r="C89">
-        <v>-0.05385266602228551</v>
+        <v>-0.04041224177333748</v>
       </c>
       <c r="D89">
-        <v>-0.1602971454471183</v>
+        <v>-0.3467224197575194</v>
       </c>
       <c r="E89">
-        <v>-0.2614085946245374</v>
+        <v>0.04137093579412775</v>
       </c>
       <c r="F89">
-        <v>-0.1187566378248194</v>
+        <v>0.05684860132713328</v>
       </c>
       <c r="G89">
-        <v>0.01921764922513567</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02387658511966195</v>
+      </c>
+      <c r="H89">
+        <v>0.01108315685813476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07367073174050147</v>
+        <v>0.2044685994619028</v>
       </c>
       <c r="C90">
-        <v>-0.0789841408397209</v>
+        <v>-0.03305459315947677</v>
       </c>
       <c r="D90">
-        <v>-0.2095814854828082</v>
+        <v>-0.3047969115137003</v>
       </c>
       <c r="E90">
-        <v>-0.2621355987470507</v>
+        <v>0.03123374344610375</v>
       </c>
       <c r="F90">
-        <v>-0.0710965125013905</v>
+        <v>0.07266638448085504</v>
       </c>
       <c r="G90">
-        <v>0.0172826292500477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03217296597277552</v>
+      </c>
+      <c r="H90">
+        <v>0.06714871270202884</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.314458634633003</v>
+        <v>0.2322790156396027</v>
       </c>
       <c r="C91">
-        <v>0.1484893466321356</v>
+        <v>-0.1025348990689223</v>
       </c>
       <c r="D91">
-        <v>-0.04857837415601423</v>
+        <v>0.1579601154794679</v>
       </c>
       <c r="E91">
-        <v>0.04355759917389768</v>
+        <v>-0.002092883138650396</v>
       </c>
       <c r="F91">
-        <v>0.2383310481800696</v>
+        <v>-0.1387861002468549</v>
       </c>
       <c r="G91">
-        <v>-0.03430077769946454</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1502794458158518</v>
+      </c>
+      <c r="H91">
+        <v>0.1626361822728467</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1674900587151527</v>
+        <v>0.2500093573167781</v>
       </c>
       <c r="C92">
-        <v>-0.03156704405174954</v>
+        <v>-0.09552381208356699</v>
       </c>
       <c r="D92">
-        <v>-0.3037161731509012</v>
+        <v>-0.2341409215744983</v>
       </c>
       <c r="E92">
-        <v>-0.3670384507981869</v>
+        <v>0.01697524255404851</v>
       </c>
       <c r="F92">
-        <v>0.04362043292883669</v>
+        <v>0.02777026254162973</v>
       </c>
       <c r="G92">
-        <v>0.5270477227405668</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.006178098236633901</v>
+      </c>
+      <c r="H92">
+        <v>0.1484289861887449</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07532317179270384</v>
+        <v>0.2288351979916697</v>
       </c>
       <c r="C93">
-        <v>-0.08766492092707881</v>
+        <v>-0.04497798707765775</v>
       </c>
       <c r="D93">
-        <v>-0.2377997465368923</v>
+        <v>-0.3292181779460273</v>
       </c>
       <c r="E93">
-        <v>-0.3862540701762907</v>
+        <v>0.05622125889351827</v>
       </c>
       <c r="F93">
-        <v>-0.04172113693562818</v>
+        <v>0.08329089796457169</v>
       </c>
       <c r="G93">
-        <v>-0.06015149538931912</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02845271052645539</v>
+      </c>
+      <c r="H93">
+        <v>0.01746915948057724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3039412850318651</v>
+        <v>0.2554970978216163</v>
       </c>
       <c r="C94">
-        <v>0.2164430968127191</v>
+        <v>-0.09331651442400725</v>
       </c>
       <c r="D94">
-        <v>-0.09712023907770631</v>
+        <v>0.1579817514834367</v>
       </c>
       <c r="E94">
-        <v>0.05036289714758389</v>
+        <v>0.006556525696570968</v>
       </c>
       <c r="F94">
-        <v>0.2034055509709812</v>
+        <v>-0.1882249558019014</v>
       </c>
       <c r="G94">
-        <v>-0.08045351904006449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1390191556133375</v>
+      </c>
+      <c r="H94">
+        <v>0.1821878653681815</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06752461338337719</v>
+        <v>0.05165780675805139</v>
       </c>
       <c r="C95">
-        <v>0.02918528439346702</v>
+        <v>-0.02795294242330502</v>
       </c>
       <c r="D95">
-        <v>0.09554705537205993</v>
+        <v>0.0845723019305059</v>
       </c>
       <c r="E95">
-        <v>0.06495474453645084</v>
+        <v>0.08041251745936931</v>
       </c>
       <c r="F95">
-        <v>-0.002530735419098616</v>
+        <v>-0.003203048836595337</v>
       </c>
       <c r="G95">
-        <v>0.1519752424158809</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03185030191730466</v>
+      </c>
+      <c r="H95">
+        <v>-0.04500237879137912</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1829802288501705</v>
+        <v>0.1800412528230771</v>
       </c>
       <c r="C98">
-        <v>-0.01125362859773147</v>
+        <v>-0.06762665632186037</v>
       </c>
       <c r="D98">
-        <v>0.03442634881601911</v>
+        <v>0.04366973137331202</v>
       </c>
       <c r="E98">
-        <v>-0.09183065248170491</v>
+        <v>0.0444022244904303</v>
       </c>
       <c r="F98">
-        <v>-0.166437630351054</v>
+        <v>-0.003394006659688138</v>
       </c>
       <c r="G98">
-        <v>-0.3559731782432938</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08343227331148079</v>
+      </c>
+      <c r="H98">
+        <v>-0.3772436121899743</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00793595843901927</v>
+        <v>0.01521930263539197</v>
       </c>
       <c r="C101">
-        <v>0.02589876654048633</v>
+        <v>0.0005498506932601688</v>
       </c>
       <c r="D101">
-        <v>0.02042757221634231</v>
+        <v>0.008111911046780258</v>
       </c>
       <c r="E101">
-        <v>0.102980816293625</v>
+        <v>-0.005527662998320053</v>
       </c>
       <c r="F101">
-        <v>-0.1450710413263795</v>
+        <v>-0.01784673495167569</v>
       </c>
       <c r="G101">
-        <v>0.1787059260719298</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1084198778264602</v>
+      </c>
+      <c r="H101">
+        <v>0.03154347739243287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1098485737312965</v>
+        <v>0.1035947111260351</v>
       </c>
       <c r="C102">
-        <v>0.06916098605873283</v>
+        <v>-0.03379743059664445</v>
       </c>
       <c r="D102">
-        <v>-0.003196449672102526</v>
+        <v>0.08372278057099897</v>
       </c>
       <c r="E102">
-        <v>0.04976828219580389</v>
+        <v>-0.005117748686671867</v>
       </c>
       <c r="F102">
-        <v>0.1180418493670286</v>
+        <v>-0.06833544940442288</v>
       </c>
       <c r="G102">
-        <v>0.005834993423843296</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07773767815285222</v>
+      </c>
+      <c r="H102">
+        <v>0.06893148882433763</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02928285042224037</v>
+        <v>0.01954814616142059</v>
       </c>
       <c r="C103">
-        <v>0.01650778933636107</v>
+        <v>-0.007420224986399397</v>
       </c>
       <c r="D103">
-        <v>-0.004853527075253521</v>
+        <v>0.01745614737875098</v>
       </c>
       <c r="E103">
-        <v>0.01372774861914622</v>
+        <v>-0.01130987577880951</v>
       </c>
       <c r="F103">
-        <v>0.009117342234636516</v>
+        <v>-0.01385108414633102</v>
       </c>
       <c r="G103">
-        <v>0.0345792549208626</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0001534954074700104</v>
+      </c>
+      <c r="H103">
+        <v>0.007994521754221273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2653806442172311</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9470730215569343</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01450542085053756</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03495480666937648</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.144663896884692</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01358724967507942</v>
+      </c>
+      <c r="H104">
+        <v>0.0388216015889694</v>
       </c>
     </row>
   </sheetData>
